--- a/forge/performance_log.xlsx
+++ b/forge/performance_log.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="Calc" lastEdited="786096455687" lowestEdited="0" rupBuild="140729082970123"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView activeTab="9" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet9" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet11" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet12" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet13" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="2572685410304" concurrentCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
   <si>
     <t xml:space="preserve">Solver Name</t>
   </si>
@@ -88,7 +84,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,7 +110,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -123,65 +118,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="general" textRotation="0" indent="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23"/>
+    <col min="3" max="3" width="23" style="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -195,7 +178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -209,7 +192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -226,201 +209,199 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>5071954</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>209140.234375</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="0">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="0">
         <v>0.206173241138458</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>24.2514514923096</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>10142430</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>163827.34375</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="0">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="0">
         <v>0.0807633623480797</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>61.9092636108398</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" customFormat="0" ht="15">
+      <c r="A7" s="0">
         <v>26662711</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0">
         <v>166382.515625</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="0">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="0">
         <v>0.0312013495713472</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="0">
         <v>160.249481201172</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5" customFormat="0" ht="15">
+      <c r="A8" s="0">
         <v>39538185</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0">
         <v>136623.171875</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="0">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="0">
         <v>0.0172773692756891</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="0">
         <v>289.395904541016</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" customFormat="0" ht="15">
+      <c r="A9" s="0">
         <v>86227250</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="0">
         <v>137428.921875</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="0">
         <v>5</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="0">
         <v>0.00796899665147066</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="0">
         <v>627.431579589844</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" customFormat="0" ht="15">
+      <c r="A10" s="0">
         <v>78224333</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0">
         <v>136439.421875</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="0">
         <v>5</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="0">
         <v>0.00872103497385979</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="0">
         <v>573.326477050781</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" customFormat="0" ht="15">
+      <c r="A11" s="0">
         <v>90498051</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="0">
         <v>147319.890625</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="0">
         <v>5</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="0">
         <v>0.00813939515501261</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="0">
         <v>614.296264648438</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:5" customFormat="0" ht="15">
+      <c r="A12" s="0">
         <v>72196496</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="0">
         <v>136572.75</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="0">
         <v>5</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="0">
         <v>0.00945840589702129</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="0">
         <v>528.630310058594</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:5" customFormat="0" ht="15">
+      <c r="A13" s="0">
         <v>32654498</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="0">
         <v>150774.78125</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="0">
         <v>5</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="0">
         <v>0.0230863709002733</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="0">
         <v>216.578002929688</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" customFormat="0" ht="15">
+      <c r="A14" s="0">
         <v>42869845</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0">
         <v>166570.34375</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="0">
         <v>5</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="0">
         <v>0.0194274485111237</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="0">
         <v>257.367797851562</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -434,7 +415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -448,7 +429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -465,354 +446,352 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>87569.484375</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.69541549682617</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>2.35930347442627</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>189903</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>101035.796875</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
         <v>2.12815594673157</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>1.87956130504608</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" customFormat="0" ht="15">
+      <c r="A7" s="0">
         <v>190889</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0">
         <v>106437.921875</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="0">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0">
         <v>2.23036289215088</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="0">
         <v>1.79343008995056</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5" customFormat="0" ht="15">
+      <c r="A8" s="0">
         <v>228744</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0">
         <v>105106.8984375</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="0">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0">
         <v>1.83798313140869</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="0">
         <v>2.17629814147949</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" customFormat="0" ht="15">
+      <c r="A9" s="0">
         <v>214282</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="0">
         <v>104245.3125</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="0">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0">
         <v>1.94594633579254</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="0">
         <v>2.05555486679077</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" customFormat="0" ht="15">
+      <c r="A10" s="0">
         <v>217141</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0">
         <v>109464.234375</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="0">
+        <v>4</v>
+      </c>
+      <c r="D10" s="0">
         <v>2.01646399497986</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="0">
         <v>1.98367035388947</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" customFormat="0" ht="15">
+      <c r="A11" s="0">
         <v>300539</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="0">
         <v>108699.4609375</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="0">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0">
         <v>1.44672691822052</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="0">
         <v>2.76486158370972</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:5" customFormat="0" ht="15">
+      <c r="A12" s="0">
         <v>318775</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="0">
         <v>103334.609375</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="0">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.29664635658264</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="0">
         <v>3.084881067276</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:5" customFormat="0" ht="15">
+      <c r="A13" s="0">
         <v>330132</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="0">
         <v>101641.90625</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0">
         <v>1.23153054714203</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="0">
         <v>3.24799084663391</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" customFormat="0" ht="15">
+      <c r="A14" s="0">
         <v>343092</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0">
         <v>101716.8125</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="0">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0">
         <v>1.18588387966156</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="0">
         <v>3.37301111221313</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" customFormat="0" ht="15">
+      <c r="A15" s="0">
         <v>358615</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0">
         <v>98004.3984375</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0">
         <v>1.09314334392548</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="0">
         <v>3.65917229652405</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" customFormat="0" ht="15">
+      <c r="A16" s="0">
         <v>387406</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0">
         <v>99003.5390625</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="0">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0">
         <v>1.02222001552582</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="0">
         <v>3.91305184364319</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" customFormat="0" ht="15">
+      <c r="A17" s="0">
         <v>321311</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0">
         <v>95915.8828125</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="0">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0">
         <v>1.19405663013458</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="0">
         <v>3.34992456436157</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" customFormat="0" ht="15">
+      <c r="A18" s="0">
         <v>298845</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0">
         <v>106396.8046875</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="0">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0">
         <v>1.42410695552826</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="0">
         <v>2.80877780914307</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:5" customFormat="0" ht="15">
+      <c r="A19" s="0">
         <v>317820</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0">
         <v>93140.734375</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="0">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0">
         <v>1.17224526405334</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="0">
         <v>3.41225528717041</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:5" customFormat="0" ht="15">
+      <c r="A20" s="0">
         <v>340966</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0">
         <v>109598.0390625</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="0">
+        <v>4</v>
+      </c>
+      <c r="D20" s="0">
         <v>1.28573572635651</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="0">
         <v>3.11105895042419</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:5" customFormat="0" ht="15">
+      <c r="A21" s="0">
         <v>517040</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="0">
         <v>92840.578125</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="0">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0">
         <v>0.718246817588806</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="0">
         <v>5.56911611557007</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:5" customFormat="0" ht="15">
+      <c r="A22" s="0">
         <v>762662</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="0">
         <v>102879.3828125</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" s="0" t="n">
+      <c r="C22" s="0">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0">
         <v>0.539580523967743</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="0">
         <v>7.41316604614258</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:5" customFormat="0" ht="15">
+      <c r="A23" s="0">
         <v>783890</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="0">
         <v>82953.296875</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C23" s="0">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0">
         <v>0.423290491104126</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="0">
         <v>9.44977474212646</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -826,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -840,7 +819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -857,286 +836,284 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>91251.296875</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.7666984796524</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>2.26411008834839</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>189903</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>99256.3125</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
         <v>2.09067416191101</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>1.91325855255127</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" customFormat="0" ht="15">
+      <c r="A7" s="0">
         <v>190889</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0">
         <v>106724.765625</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="0">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0">
         <v>2.23637366294861</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="0">
         <v>1.78860974311829</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5" customFormat="0" ht="15">
+      <c r="A8" s="0">
         <v>228744</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0">
         <v>104155.1875</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="0">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0">
         <v>1.82134079933167</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="0">
         <v>2.19618439674377</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" customFormat="0" ht="15">
+      <c r="A9" s="0">
         <v>214282</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="0">
         <v>104510.1875</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="0">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0">
         <v>1.95089089870453</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="0">
         <v>2.05034518241882</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" customFormat="0" ht="15">
+      <c r="A10" s="0">
         <v>217141</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0">
         <v>42376.953125</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="0">
+        <v>4</v>
+      </c>
+      <c r="D10" s="0">
         <v>0.780634760856628</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="0">
         <v>5.1240348815918</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" customFormat="0" ht="15">
+      <c r="A11" s="0">
         <v>300539</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="0">
         <v>106147.3984375</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="0">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0">
         <v>1.41276049613953</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="0">
         <v>2.83133625984192</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:5" customFormat="0" ht="15">
+      <c r="A12" s="0">
         <v>318775</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="0">
         <v>103575.8984375</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="0">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.29967415332794</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="0">
         <v>3.07769441604614</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:5" customFormat="0" ht="15">
+      <c r="A13" s="0">
         <v>330132</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="0">
         <v>101145.1484375</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0">
         <v>1.22551167011261</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="0">
         <v>3.26394295692444</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" customFormat="0" ht="15">
+      <c r="A14" s="0">
         <v>343092</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0">
         <v>103862.375</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="0">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0">
         <v>1.21089828014374</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="0">
         <v>3.30333256721497</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" customFormat="0" ht="15">
+      <c r="A15" s="0">
         <v>358615</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0">
         <v>95219.0859375</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0">
         <v>1.06207597255707</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="0">
         <v>3.7662091255188</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" customFormat="0" ht="15">
+      <c r="A16" s="0">
         <v>387406</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0">
         <v>103820.9765625</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="0">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0">
         <v>1.07196056842804</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="0">
         <v>3.73148059844971</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" customFormat="0" ht="15">
+      <c r="A17" s="0">
         <v>321311</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0">
         <v>96056.609375</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="0">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0">
         <v>1.19580864906311</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="0">
         <v>3.34501671791077</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" customFormat="0" ht="15">
+      <c r="A18" s="0">
         <v>298845</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0">
         <v>109630.609375</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="0">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0">
         <v>1.46739101409912</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="0">
         <v>2.72592639923096</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:5" customFormat="0" ht="15">
+      <c r="A19" s="0">
         <v>317820</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0">
         <v>51860.42578125</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="0">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0">
         <v>0.652701854705811</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="0">
         <v>6.12837219238281</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1181,48 +1158,987 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>91331.7578125</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.76825630664825</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>2.26211547851562</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E53"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>206603</v>
+      </c>
+      <c r="B5">
+        <v>158685.03125</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3.07226991653442</v>
+      </c>
+      <c r="E5">
+        <v>1.30196893215179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>189903</v>
+      </c>
+      <c r="B6">
+        <v>171950.609375</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3.62186241149902</v>
+      </c>
+      <c r="E6">
+        <v>1.10440421104431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>190889</v>
+      </c>
+      <c r="B7">
+        <v>183345.453125</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3.84192848205566</v>
+      </c>
+      <c r="E7">
+        <v>1.04114365577698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>228744</v>
+      </c>
+      <c r="B8">
+        <v>182393.640625</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3.18948078155518</v>
+      </c>
+      <c r="E8">
+        <v>1.25412249565125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>214282</v>
+      </c>
+      <c r="B9">
+        <v>186070.328125</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3.47337317466736</v>
+      </c>
+      <c r="E9">
+        <v>1.1516181230545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>217141</v>
+      </c>
+      <c r="B10">
+        <v>193650.3125</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3.56727337837219</v>
+      </c>
+      <c r="E10">
+        <v>1.12130439281464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>300539</v>
+      </c>
+      <c r="B11">
+        <v>190066.9375</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2.52968096733093</v>
+      </c>
+      <c r="E11">
+        <v>1.58122682571411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>318775</v>
+      </c>
+      <c r="B12">
+        <v>177052.40625</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2.22165989875793</v>
+      </c>
+      <c r="E12">
+        <v>1.80045557022095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>330132</v>
+      </c>
+      <c r="B13">
+        <v>174118.6875</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2.10968565940857</v>
+      </c>
+      <c r="E13">
+        <v>1.89601707458496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>343092</v>
+      </c>
+      <c r="B14">
+        <v>177535.078125</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2.06982469558716</v>
+      </c>
+      <c r="E14">
+        <v>1.93253064155579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>358615</v>
+      </c>
+      <c r="B15">
+        <v>168880.234375</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1.88369417190552</v>
+      </c>
+      <c r="E15">
+        <v>2.12348699569702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>387406</v>
+      </c>
+      <c r="B16">
+        <v>178544.296875</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1.84348511695862</v>
+      </c>
+      <c r="E16">
+        <v>2.16980338096619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>321311</v>
+      </c>
+      <c r="B17">
+        <v>166812.671875</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2.07665061950684</v>
+      </c>
+      <c r="E17">
+        <v>1.92617857456207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>298845</v>
+      </c>
+      <c r="B18">
+        <v>182391.0625</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>2.44127988815308</v>
+      </c>
+      <c r="E18">
+        <v>1.63848471641541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>317820</v>
+      </c>
+      <c r="B19">
+        <v>152945.046875</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1.9249267578125</v>
+      </c>
+      <c r="E19">
+        <v>2.07800102233887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>340966</v>
+      </c>
+      <c r="B20">
+        <v>188050.90625</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2.20609569549561</v>
+      </c>
+      <c r="E20">
+        <v>1.81315791606903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>517040</v>
+      </c>
+      <c r="B21">
+        <v>155565.875</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1.20351135730743</v>
+      </c>
+      <c r="E21">
+        <v>3.32360792160034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>762662</v>
+      </c>
+      <c r="B22">
+        <v>181897.40625</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0.954013228416443</v>
+      </c>
+      <c r="E22">
+        <v>4.19281387329102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>783890</v>
+      </c>
+      <c r="B23">
+        <v>145825.671875</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0.744112968444824</v>
+      </c>
+      <c r="E23">
+        <v>5.37552785873413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>840699</v>
+      </c>
+      <c r="B24">
+        <v>176736.65625</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0.840903401374817</v>
+      </c>
+      <c r="E24">
+        <v>4.75678873062134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>812124</v>
+      </c>
+      <c r="B25">
+        <v>139368.859375</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0.6864413022995</v>
+      </c>
+      <c r="E25">
+        <v>5.82715511322021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>863033</v>
+      </c>
+      <c r="B26">
+        <v>178622.015625</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.827880382537842</v>
+      </c>
+      <c r="E26">
+        <v>4.83161592483521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>879584</v>
+      </c>
+      <c r="B27">
+        <v>139498.484375</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0.634383916854858</v>
+      </c>
+      <c r="E27">
+        <v>6.30533027648926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>582530</v>
+      </c>
+      <c r="B28">
+        <v>182492.71875</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1.25310432910919</v>
+      </c>
+      <c r="E28">
+        <v>3.19207239151001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>833114</v>
+      </c>
+      <c r="B29">
+        <v>140448.71875</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0.674331367015839</v>
+      </c>
+      <c r="E29">
+        <v>5.93180227279663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1179432</v>
+      </c>
+      <c r="B30">
+        <v>170158.453125</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0.577086091041565</v>
+      </c>
+      <c r="E30">
+        <v>6.93137454986572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1840317</v>
+      </c>
+      <c r="B31">
+        <v>124477.265625</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0.270556151866913</v>
+      </c>
+      <c r="E31">
+        <v>14.7843627929688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1466452</v>
+      </c>
+      <c r="B32">
+        <v>149583.53125</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.40801477432251</v>
+      </c>
+      <c r="E32">
+        <v>9.80356597900391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1758158</v>
+      </c>
+      <c r="B33">
+        <v>133124.484375</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.302872627973557</v>
+      </c>
+      <c r="E33">
+        <v>13.2068719863892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>1966551</v>
+      </c>
+      <c r="B34">
+        <v>140509.53125</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.285798907279968</v>
+      </c>
+      <c r="E34">
+        <v>13.9958543777466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>2025948</v>
+      </c>
+      <c r="B35">
+        <v>131971.03125</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0.260561555624008</v>
+      </c>
+      <c r="E35">
+        <v>15.3514585494995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>1977191</v>
+      </c>
+      <c r="B36">
+        <v>132035.890625</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0.267118126153946</v>
+      </c>
+      <c r="E36">
+        <v>14.974648475647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>2107303</v>
+      </c>
+      <c r="B37">
+        <v>128593.9453125</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0.244091987609863</v>
+      </c>
+      <c r="E37">
+        <v>16.387264251709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>1974901</v>
+      </c>
+      <c r="B38">
+        <v>131390.4375</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0.266120553016663</v>
+      </c>
+      <c r="E38">
+        <v>15.0307817459106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>1877468</v>
+      </c>
+      <c r="B39">
+        <v>127435.25</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>0.271504491567612</v>
+      </c>
+      <c r="E39">
+        <v>14.7327213287354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1852977</v>
+      </c>
+      <c r="B40">
+        <v>136722</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0.295140206813812</v>
+      </c>
+      <c r="E40">
+        <v>13.5528812408447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1795277</v>
+      </c>
+      <c r="B41">
+        <v>125224.90625</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0.27900967001915</v>
+      </c>
+      <c r="E41">
+        <v>14.3364210128784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1600626</v>
+      </c>
+      <c r="B42">
+        <v>142304.25</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>0.355621516704559</v>
+      </c>
+      <c r="E42">
+        <v>11.24791431427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1847741</v>
+      </c>
+      <c r="B43">
+        <v>126449.5</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>0.273738592863083</v>
+      </c>
+      <c r="E43">
+        <v>14.6124811172485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1765772</v>
+      </c>
+      <c r="B44">
+        <v>141579.953125</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0.320720821619034</v>
+      </c>
+      <c r="E44">
+        <v>12.4719066619873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1665325</v>
+      </c>
+      <c r="B45">
+        <v>123884.484375</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>0.297562301158905</v>
+      </c>
+      <c r="E45">
+        <v>13.4425630569458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1570088</v>
+      </c>
+      <c r="B46">
+        <v>147128.734375</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0.374829262495041</v>
+      </c>
+      <c r="E46">
+        <v>10.6715250015259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1842883</v>
+      </c>
+      <c r="B47">
+        <v>125187.9375</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0.271721929311752</v>
+      </c>
+      <c r="E47">
+        <v>14.7209310531616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1537818</v>
+      </c>
+      <c r="B48">
+        <v>146341.046875</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>0.380645960569382</v>
+      </c>
+      <c r="E48">
+        <v>10.5084524154663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1433828</v>
+      </c>
+      <c r="B49">
+        <v>131084.953125</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>0.365692287683487</v>
+      </c>
+      <c r="E49">
+        <v>10.9381580352783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1451052</v>
+      </c>
+      <c r="B50">
+        <v>149015.359375</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>0.410778850317001</v>
+      </c>
+      <c r="E50">
+        <v>9.73760032653809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1684785</v>
+      </c>
+      <c r="B51">
+        <v>123880.046875</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>0.294114798307419</v>
+      </c>
+      <c r="E51">
+        <v>13.6001319885254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>2448818</v>
+      </c>
+      <c r="B52">
+        <v>139085.46875</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>0.227187931537628</v>
+      </c>
+      <c r="E52">
+        <v>17.6065692901611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>2276416</v>
+      </c>
+      <c r="B53">
+        <v>124908.015625</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>0.219481885433197</v>
+      </c>
+      <c r="E53">
+        <v>18.224739074707</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +2166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1268,30 +2184,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +2219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +2233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1337,30 +2251,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1388,7 +2300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1405,82 +2317,80 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>102079.6875</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.97634482383728</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>2.02393817901611</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>416741</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>114099.2421875</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
         <v>1.09515738487244</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>3.65244293212891</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" customFormat="0" ht="15">
+      <c r="A7" s="0">
         <v>852602</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0">
         <v>90150.484375</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="0">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0">
         <v>0.422942876815796</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="0">
         <v>9.45754241943359</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1525,65 +2435,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>95699.296875</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.85281527042389</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>2.15887665748596</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>416741</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>110854.703125</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
         <v>1.06401586532593</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>3.75934219360352</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +2505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +2519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1628,65 +2536,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>106398.1328125</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>2.05995345115662</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>1.94179141521454</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>341029</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>113257.4140625</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
         <v>1.32841980457306</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>3.01109600067139</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1714,7 +2620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1731,303 +2637,301 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>86174.5546875</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.66840875148773</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>2.3974940776825</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>189903</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>94332.796875</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
         <v>1.98696851730347</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>2.01311612129211</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" customFormat="0" ht="15">
+      <c r="A7" s="0">
         <v>190889</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0">
         <v>97341.0390625</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="0">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0">
         <v>2.0397412776947</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="0">
         <v>1.96103298664093</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5" customFormat="0" ht="15">
+      <c r="A8" s="0">
         <v>228744</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0">
         <v>28892.052734375</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="0">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0">
         <v>0.505229473114014</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="0">
         <v>7.91719436645508</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" customFormat="0" ht="15">
+      <c r="A9" s="0">
         <v>214282</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="0">
         <v>94440.703125</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="0">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0">
         <v>1.76292371749878</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="0">
         <v>2.26895785331726</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" customFormat="0" ht="15">
+      <c r="A10" s="0">
         <v>217592</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0">
         <v>97454.828125</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="0">
+        <v>4</v>
+      </c>
+      <c r="D10" s="0">
         <v>1.79151499271393</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="0">
         <v>2.23274707794189</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" customFormat="0" ht="15">
+      <c r="A11" s="0">
         <v>234411</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="0">
         <v>92768.859375</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="0">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0">
         <v>1.58301222324371</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="0">
         <v>2.52682828903198</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:5" customFormat="0" ht="15">
+      <c r="A12" s="0">
         <v>251590</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="0">
         <v>96862.2109375</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="0">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.54000115394592</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="0">
         <v>2.5974006652832</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:5" customFormat="0" ht="15">
+      <c r="A13" s="0">
         <v>234036</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="0">
         <v>91896.4140625</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0">
         <v>1.57063734531403</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="0">
         <v>2.54673671722412</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" customFormat="0" ht="15">
+      <c r="A14" s="0">
         <v>233922</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0">
         <v>96397</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="0">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0">
         <v>1.64836156368256</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="0">
         <v>2.42665195465088</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" customFormat="0" ht="15">
+      <c r="A15" s="0">
         <v>250558</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0">
         <v>87072.7421875</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0">
         <v>1.39006125926971</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="0">
         <v>2.87757086753845</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" customFormat="0" ht="15">
+      <c r="A16" s="0">
         <v>248074</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0">
         <v>98203.8359375</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="0">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0">
         <v>1.58346033096313</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="0">
         <v>2.52611303329468</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" customFormat="0" ht="15">
+      <c r="A17" s="0">
         <v>233029</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0">
         <v>90537.7578125</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="0">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0">
         <v>1.55410301685333</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="0">
         <v>2.5738320350647</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" customFormat="0" ht="15">
+      <c r="A18" s="0">
         <v>250733</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0">
         <v>97949.1796875</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="0">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0">
         <v>1.56260550022125</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="0">
         <v>2.55982708930969</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:5" customFormat="0" ht="15">
+      <c r="A19" s="0">
         <v>274541</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0">
         <v>88337.6875</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="0">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0">
         <v>1.28706014156342</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="0">
         <v>3.10785794258118</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:5" customFormat="0" ht="15">
+      <c r="A20" s="0">
         <v>271976</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0">
         <v>97266.9921875</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="0">
+        <v>4</v>
+      </c>
+      <c r="D20" s="0">
         <v>1.43052315711975</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="0">
         <v>2.79617977142334</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -2072,354 +2976,352 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>86636.671875</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.6773556470871</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>2.38470578193665</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>189903</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>41501.06640625</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
         <v>0.874152898788452</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>4.5758581161499</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" customFormat="0" ht="15">
+      <c r="A7" s="0">
         <v>190889</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0">
         <v>103698.484375</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="0">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0">
         <v>2.1729588508606</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="0">
         <v>1.84080791473389</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5" customFormat="0" ht="15">
+      <c r="A8" s="0">
         <v>228744</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0">
         <v>104120.765625</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="0">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0">
         <v>1.82073879241943</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="0">
         <v>2.19691014289856</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" customFormat="0" ht="15">
+      <c r="A9" s="0">
         <v>214282</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="0">
         <v>102789.96875</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="0">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0">
         <v>1.91877961158752</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="0">
         <v>2.08465838432312</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" customFormat="0" ht="15">
+      <c r="A10" s="0">
         <v>217141</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0">
         <v>107094.3828125</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="0">
+        <v>4</v>
+      </c>
+      <c r="D10" s="0">
         <v>1.97280824184418</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="0">
         <v>2.02756643295288</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" customFormat="0" ht="15">
+      <c r="A11" s="0">
         <v>300539</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="0">
         <v>106017.390625</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="0">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0">
         <v>1.41103005409241</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="0">
         <v>2.83480834960938</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:5" customFormat="0" ht="15">
+      <c r="A12" s="0">
         <v>318775</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="0">
         <v>100300.953125</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="0">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.25857996940613</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="0">
         <v>3.1781849861145</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:5" customFormat="0" ht="15">
+      <c r="A13" s="0">
         <v>330132</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="0">
         <v>99559.046875</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0">
         <v>1.20629382133484</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="0">
         <v>3.31594157218933</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" customFormat="0" ht="15">
+      <c r="A14" s="0">
         <v>343092</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0">
         <v>101955</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="0">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0">
         <v>1.18866086006165</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="0">
         <v>3.36513161659241</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" customFormat="0" ht="15">
+      <c r="A15" s="0">
         <v>358615</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0">
         <v>92713.9765625</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0">
         <v>1.03413391113281</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="0">
         <v>3.86797118186951</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" customFormat="0" ht="15">
+      <c r="A16" s="0">
         <v>387406</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0">
         <v>99215.734375</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="0">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0">
         <v>1.02441096305847</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="0">
         <v>3.90468263626099</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" customFormat="0" ht="15">
+      <c r="A17" s="0">
         <v>321311</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0">
         <v>94653.0546875</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="0">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0">
         <v>1.17833566665649</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="0">
         <v>3.39461827278137</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" customFormat="0" ht="15">
+      <c r="A18" s="0">
         <v>298845</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0">
         <v>106716.671875</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="0">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0">
         <v>1.42838835716248</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="0">
         <v>2.80035877227783</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:5" customFormat="0" ht="15">
+      <c r="A19" s="0">
         <v>317820</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0">
         <v>92518.7578125</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="0">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0">
         <v>1.16441714763641</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="0">
         <v>3.43519496917725</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:5" customFormat="0" ht="15">
+      <c r="A20" s="0">
         <v>340966</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0">
         <v>108343.3828125</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="0">
+        <v>4</v>
+      </c>
+      <c r="D20" s="0">
         <v>1.27101695537567</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="0">
         <v>3.14708638191223</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:5" customFormat="0" ht="15">
+      <c r="A21" s="0">
         <v>517040</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="0">
         <v>91062.59375</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="0">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0">
         <v>0.7044917345047</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="0">
         <v>5.67785215377808</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:5" customFormat="0" ht="15">
+      <c r="A22" s="0">
         <v>762662</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="0">
         <v>99302.3203125</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" s="0" t="n">
+      <c r="C22" s="0">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0">
         <v>0.520819544792175</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="0">
         <v>7.68020296096802</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:5" customFormat="0" ht="15">
+      <c r="A23" s="0">
         <v>783890</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="0">
         <v>83996.5234375</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C23" s="0">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0">
         <v>0.428613841533661</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="0">
         <v>9.3324089050293</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47656" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" customFormat="0" ht="15">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" customFormat="0" ht="15">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2447,7 +3349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" customFormat="0" ht="15">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -2464,302 +3366,299 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" customFormat="0" ht="15">
+      <c r="A5" s="0">
         <v>206603</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0">
         <v>87899.5390625</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.70180571079254</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0">
         <v>2.35044455528259</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" customFormat="0" ht="15">
+      <c r="A6" s="0">
         <v>189903</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0">
         <v>98096.6328125</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
         <v>2.06624746322632</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0">
         <v>1.93587648868561</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" customFormat="0" ht="15">
+      <c r="A7" s="0">
         <v>190889</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0">
         <v>105395.515625</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="0">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0">
         <v>2.20851945877075</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="0">
         <v>1.81116795539856</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5" customFormat="0" ht="15">
+      <c r="A8" s="0">
         <v>228744</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0">
         <v>100050.65625</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="0">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0">
         <v>1.74956572055817</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="0">
         <v>2.28628182411194</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" customFormat="0" ht="15">
+      <c r="A9" s="0">
         <v>214282</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="0">
         <v>100676.40625</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="0">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0">
         <v>1.87932562828064</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="0">
         <v>2.12842297554016</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" customFormat="0" ht="15">
+      <c r="A10" s="0">
         <v>217141</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0">
         <v>108160.25</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="0">
+        <v>4</v>
+      </c>
+      <c r="D10" s="0">
         <v>1.99244272708893</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="0">
         <v>2.00758576393127</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" customFormat="0" ht="15">
+      <c r="A11" s="0">
         <v>300539</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="0">
         <v>106518.7578125</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="0">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0">
         <v>1.4177029132843</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="0">
         <v>2.82146525382996</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:5" customFormat="0" ht="15">
+      <c r="A12" s="0">
         <v>318775</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="0">
         <v>102013.609375</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="0">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.28007054328918</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="0">
         <v>3.12482786178589</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:5" customFormat="0" ht="15">
+      <c r="A13" s="0">
         <v>330132</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="0">
         <v>99444.046875</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0">
         <v>1.20490050315857</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="0">
         <v>3.31977605819702</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" customFormat="0" ht="15">
+      <c r="A14" s="0">
         <v>343092</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0">
         <v>101900.40625</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="0">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0">
         <v>1.18802428245544</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="0">
         <v>3.36693453788757</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" customFormat="0" ht="15">
+      <c r="A15" s="0">
         <v>358615</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0">
         <v>96097.9921875</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0">
         <v>1.07187926769257</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="0">
         <v>3.7317636013031</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" customFormat="0" ht="15">
+      <c r="A16" s="0">
         <v>387406</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0">
         <v>96709.2734375</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="0">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0">
         <v>0.998531579971313</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="0">
         <v>4.00588226318359</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" customFormat="0" ht="15">
+      <c r="A17" s="0">
         <v>321311</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0">
         <v>93356.84375</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="0">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0">
         <v>1.16219913959503</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="0">
         <v>3.4417507648468</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" customFormat="0" ht="15">
+      <c r="A18" s="0">
         <v>298845</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0">
         <v>106580.421875</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="0">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0">
         <v>1.42656457424164</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="0">
         <v>2.80393886566162</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:5" customFormat="0" ht="15">
+      <c r="A19" s="0">
         <v>317820</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0">
         <v>91985.3046875</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="0">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0">
         <v>1.15770316123962</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="0">
         <v>3.45511698722839</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:5" customFormat="0" ht="15">
+      <c r="A20" s="0">
         <v>340966</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0">
         <v>105722.7109375</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="0">
+        <v>4</v>
+      </c>
+      <c r="D20" s="0">
         <v>1.24027276039124</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="0">
         <v>3.22509694099426</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:5" customFormat="0" ht="15">
+      <c r="A21" s="0">
         <v>517040</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="0">
         <v>89273.734375</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="0">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0">
         <v>0.69065248966217</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="0">
         <v>5.79162454605103</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/forge/performance_log.xlsx
+++ b/forge/performance_log.xlsx
@@ -15,13 +15,14 @@
     <sheet name="Sheet12" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="1979979923456" concurrentCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="16">
   <si>
     <t xml:space="preserve">Solver Name</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">ApplePieHeuristic</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -4422,4 +4429,166 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>206603</v>
+      </c>
+      <c r="B5">
+        <v>158916.1875</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3.07674503326416</v>
+      </c>
+      <c r="E5">
+        <v>1.30007517337799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>189903</v>
+      </c>
+      <c r="B6">
+        <v>176677.578125</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3.72142815589905</v>
+      </c>
+      <c r="E6">
+        <v>1.07485604286194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>190889</v>
+      </c>
+      <c r="B7">
+        <v>187163.359375</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3.92193078994751</v>
+      </c>
+      <c r="E7">
+        <v>1.01990568637848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>228744</v>
+      </c>
+      <c r="B8">
+        <v>17920.630859375</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.313374429941177</v>
+      </c>
+      <c r="E8">
+        <v>12.7642831802368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>214282</v>
+      </c>
+      <c r="B9">
+        <v>187889.625</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3.50733399391174</v>
+      </c>
+      <c r="E9">
+        <v>1.14046728610992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>217141</v>
+      </c>
+      <c r="B10">
+        <v>194081.03125</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3.57520771026611</v>
+      </c>
+      <c r="E10">
+        <v>1.11881613731384</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>